--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مسحوق غسيل فل ازرق يدوى - 9 كجم</t>
-  </si>
-  <si>
-    <t>مسحوق غسيل فل ازرق يدوى - 2.5 كجم</t>
-  </si>
-  <si>
-    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
+    <t>بيبسى - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,53 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2805</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>175.5</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3934</v>
+        <v>1124</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>51.25</v>
+        <v>157.75</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>24724</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>527.25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -37,10 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>ستينج فراولة زجاج - 275 مل</t>
+    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
+  </si>
+  <si>
+    <t>بقسماط ناعم ريتش بيك - 400 جرام</t>
   </si>
   <si>
     <t>YES</t>
@@ -432,16 +432,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>3334</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -449,16 +449,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1124</v>
+        <v>21946</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>157.75</v>
+        <v>395</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
-  </si>
-  <si>
-    <t>بقسماط ناعم ريتش بيك - 400 جرام</t>
+    <t>لبن المراعى كامل دسم بلاستيك - 1 لتر</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 700 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة بيور تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>لبن المراعى خالى الدسم - 1.5 لتر</t>
+  </si>
+  <si>
+    <t>سفن اكسترا فيز صودا اكثر- 20 جنيه 1.47 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,24 +441,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3334</v>
+        <v>990</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21946</v>
+        <v>1490</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -458,10 +467,61 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>395</v>
+        <v>580.5</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>9784</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>410</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>10994</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>535</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>12526</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>118.75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>لبن المراعى كامل دسم بلاستيك - 1 لتر</t>
-  </si>
-  <si>
-    <t>زيت حبوبة خليط - 700 مل</t>
-  </si>
-  <si>
-    <t>عصير جهينة بيور تفاح - 235 مل</t>
-  </si>
-  <si>
-    <t>لبن المراعى خالى الدسم - 1.5 لتر</t>
-  </si>
-  <si>
-    <t>سفن اكسترا فيز صودا اكثر- 20 جنيه 1.47 لتر</t>
+    <t>شاى ليبتون - 25 فتلة</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>حلو الشام كاكاو بودر جلاسكو- 60 جم</t>
+  </si>
+  <si>
+    <t>صابون كامى كلاسيك - 165 جم</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 215 جم</t>
+  </si>
+  <si>
+    <t>مشروب بودرة تانج مانجو جديد 2 لتر - 40 جرام</t>
   </si>
   <si>
     <t>YES</t>
@@ -410,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,87 +447,189 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>990</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>565</v>
+        <v>3888</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1490</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>580.5</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9784</v>
+        <v>1124</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>10994</v>
+        <v>1519</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>535</v>
+        <v>864</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>12526</v>
+        <v>1519</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>8754</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1014</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>8754</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>84.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8915</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>118.75</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D9">
+        <v>182</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11813</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>24127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>115.75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>24127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1157.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون - 25 فتلة</t>
-  </si>
-  <si>
-    <t>ستينج فراولة زجاج - 275 مل</t>
-  </si>
-  <si>
-    <t>حلو الشام كاكاو بودر جلاسكو- 60 جم</t>
-  </si>
-  <si>
-    <t>صابون كامى كلاسيك - 165 جم</t>
-  </si>
-  <si>
-    <t>بيبسى - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر - 215 جم</t>
-  </si>
-  <si>
-    <t>مشروب بودرة تانج مانجو جديد 2 لتر - 40 جرام</t>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -416,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,189 +429,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>3888</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>2544</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1124</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>160</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1519</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>864</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1519</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>8754</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1014</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>8754</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>84.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8915</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>182</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>11813</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>24127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>115.75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>24127</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1157.5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون ناعم  - 250 جم</t>
+    <t>دقيق حبوبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 1.5 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,36 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>199.5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>88</v>
+        <v>950</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2544</v>
+        <v>532.5</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>دقيق حبوبة - 1 كجم</t>
-  </si>
-  <si>
-    <t>لبن جهينة كامل الدسم - 1.5 لتر</t>
+    <t>لبن جهينة كامل الدسم - 1 لتر</t>
+  </si>
+  <si>
+    <t>صابون ريفولى - 110 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>سندة زيت خليط - 900 مل</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال فيز - عرض الصيف 20جنيه 1.47 لتر</t>
+  </si>
+  <si>
+    <t>-اريال أتوماتيك داونى - 9 كجم</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +447,138 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>199.5</v>
+        <v>577</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>950</v>
+        <v>1309</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>46.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>532.5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4">
+        <v>561</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2778</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>205</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>6496</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>724</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>11844</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>108.75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19687</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>983</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>24724</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>527.25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>لبن جهينة كامل الدسم - 1 لتر</t>
-  </si>
-  <si>
-    <t>صابون ريفولى - 110 جم</t>
-  </si>
-  <si>
-    <t>كوكا كولا - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>سندة زيت خليط - 900 مل</t>
-  </si>
-  <si>
-    <t>ميرندا برتقال فيز - عرض الصيف 20جنيه 1.47 لتر</t>
-  </si>
-  <si>
-    <t>-اريال أتوماتيك داونى - 9 كجم</t>
-  </si>
-  <si>
-    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
+    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
+  </si>
+  <si>
+    <t>سبرايت - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي لافندر - 175 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق 15 جنيه - 175 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -416,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,24 +441,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>248</v>
+        <v>1886</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>577</v>
+        <v>187.5</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1309</v>
+        <v>2775</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -473,49 +467,49 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>46.75</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1309</v>
+        <v>8216</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>561</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2778</v>
+        <v>8216</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>205</v>
+        <v>336</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>6496</v>
+        <v>11952</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -524,61 +518,27 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>724</v>
+        <v>145.25</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>11844</v>
+        <v>11953</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>108.75</v>
+        <v>146.25</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19687</v>
-      </c>
-      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>983</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>24724</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>527.25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مناديل فاميليا مطبخ كلاسيك 5 رول + 1 رول هدية - 6 رول</t>
-  </si>
-  <si>
-    <t>سبرايت - 2.45 لتر</t>
-  </si>
-  <si>
     <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>اوكسي يدوي لافندر - 175 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق 15 جنيه - 175 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -410,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,104 +429,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1886</v>
+        <v>8216</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>187.5</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2775</v>
+        <v>8216</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>13.75</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>210</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>8216</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>8216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>336</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>11952</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>145.25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>11953</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>146.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+    <t>مسحوق ليدر اتوماتيك جردل لافندر (1ك زيادة) - 5 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,35 +429,18 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>8216</v>
+        <v>10181</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>330</v>
+        <v>222.75</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>8216</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>13.75</v>
-      </c>
-      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,55 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مسحوق ليدر اتوماتيك جردل لافندر (1ك زيادة) - 5 كجم</t>
+    <t>كلوركس كلور - 1.2 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1  لافندر باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 لافندر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس جل نعناع - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون - 700 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور الوان برائحة الزهور - 2 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
+  </si>
+  <si>
+    <t>كلوركس ابيض غيار - 1 كجم</t>
+  </si>
+  <si>
+    <t>كلوركس جل زهور - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 750 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +477,291 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>10181</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>222.75</v>
+        <v>387</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2658</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>378.25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2661</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>378.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2663</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>508</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2664</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>508</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2669</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>509</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2673</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>507</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>3386</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>323</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>3387</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>211</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3390</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>267</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3392</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>618</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3395</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>375</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3396</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>376.25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3399</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>507</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>5128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>244</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>6946</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>509</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>10254</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>475</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,55 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كلوركس كلور - 1.2 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 ليمون باوش - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1  لافندر باوش - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 لافندر - 3 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر - 3 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس جل نعناع - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 ليمون - 700 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور الوان برائحة الزهور - 2 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
-  </si>
-  <si>
-    <t>كلوركس ابيض غيار - 1 كجم</t>
-  </si>
-  <si>
-    <t>كلوركس جل زهور - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس الوان - 750 مل</t>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -446,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,291 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>385</v>
+        <v>25278</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>387</v>
+        <v>105.5</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2658</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>378.25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>2661</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>378.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>2663</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>508</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>2664</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>508</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2669</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>509</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2673</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>507</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>3386</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>323</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>3387</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>211</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>3390</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>267</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>3392</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>618</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>3395</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>375</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>3396</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>376.25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>3399</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>507</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>5128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>244</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>6946</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>509</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>10254</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>475</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ماكسى ليمون نعناع - 1 لتر</t>
+    <t>مسحوق باهى اوتوماتيك لافندر 2.5 كم + 300 جم - 2.8 كجم</t>
+  </si>
+  <si>
+    <t>بيتي عصير مانجو عرض خاص 28ج - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>25278</v>
+        <v>10170</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>105.5</v>
+        <v>547.75</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>13967</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>292.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مسحوق باهى اوتوماتيك لافندر 2.5 كم + 300 جم - 2.8 كجم</t>
-  </si>
-  <si>
-    <t>بيتي عصير مانجو عرض خاص 28ج - 1 لتر</t>
+    <t>مسحوق غسيل فل ازرق يدوى - 2.5 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>10170</v>
+        <v>3934</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>547.75</v>
+        <v>55.75</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>13967</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>292.75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مسحوق غسيل فل ازرق يدوى - 2.5 كجم</t>
+    <t>اوكسى جل بلاك - 185 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3934</v>
+        <v>11271</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>55.75</v>
+        <v>78.25</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اوكسى جل بلاك - 185 جم</t>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 40 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11271</v>
+        <v>11677</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>78.25</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سائل اطباق وفير بلس ليمون اصفر - 40 جم</t>
+    <t>تونة دولفين قطعة واحدة بارد - 200 جم</t>
+  </si>
+  <si>
+    <t>حلو الشام كاكاو بودر جلاسكو- 60 جم</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل الترا مسك اوتوماتيك - 12 كجم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى لافندر اوتوماتيك 8 ك + 1 ك - 9 كجم</t>
+  </si>
+  <si>
+    <t>تايد أوتوماتيك داونى  - 9 كجم</t>
+  </si>
+  <si>
+    <t>-اريال أتوماتيك داونى - 9 كجم</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +447,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11677</v>
+        <v>947</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +456,163 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>2880</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>947</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>947</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>720</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>947</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1440</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1519</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1519</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>864</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>9374</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>332.25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>10174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>741</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19685</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>864.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19687</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1006.75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1125.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1125.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>تونة دولفين قطعة واحدة بارد - 200 جم</t>
-  </si>
-  <si>
-    <t>حلو الشام كاكاو بودر جلاسكو- 60 جم</t>
-  </si>
-  <si>
-    <t>مسحوق غسيل فل الترا مسك اوتوماتيك - 12 كجم</t>
-  </si>
-  <si>
-    <t>مسحوق باهى لافندر اوتوماتيك 8 ك + 1 ك - 9 كجم</t>
-  </si>
-  <si>
-    <t>تايد أوتوماتيك داونى  - 9 كجم</t>
-  </si>
-  <si>
-    <t>-اريال أتوماتيك داونى - 9 كجم</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>كوكاكولا اكشن - 300 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -416,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,172 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>947</v>
+        <v>2778</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2880</v>
+        <v>217.5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>947</v>
+        <v>6935</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>947</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>720</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>947</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>1440</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1519</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>1519</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>864</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>9374</v>
-      </c>
-      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>332.25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>10174</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>741</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19685</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>864.75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19687</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1006.75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
